--- a/articulo 1 XAI/Redaccion/Tabla4.xlsx
+++ b/articulo 1 XAI/Redaccion/Tabla4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miumh-my.sharepoint.com/personal/ricardo_gonzalezm_miumh_umh_es/Documents/Documentos/Cafee/articulo 1 XAI/Redaccion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\Doctorado EOMA\Cafee\articulo 1 XAI\Redaccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{864018D6-86EF-479B-AB2C-106B47D0A4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D53564-C4A6-4194-9D11-F114CA558019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97FE78D2-8573-4F79-BFDC-43A05953836B}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" xr2:uid="{97FE78D2-8573-4F79-BFDC-43A05953836B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ampliado" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
   <si>
     <t>Ranking</t>
   </si>
@@ -239,13 +239,16 @@
   <si>
     <t>0.95</t>
   </si>
+  <si>
+    <t>El incremento es tan pequeño que es practicamente 0.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -281,7 +284,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +306,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -413,27 +422,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -474,12 +462,37 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -813,46 +826,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958346DE-C43B-4BBA-A577-FE1D7108FB76}">
-  <dimension ref="A1:L27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958346DE-C43B-4BBA-A577-FE1D7108FB76}">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:L22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="184" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="20" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
+    </row>
+    <row r="2" spans="1:12" ht="28.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="13" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -861,7 +874,7 @@
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -870,7 +883,7 @@
       <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -880,7 +893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -918,7 +931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -956,7 +969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -994,7 +1007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1032,7 +1045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1070,7 +1083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1108,7 +1121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1146,7 +1159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1168,7 +1181,7 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="11" t="s">
         <v>54</v>
       </c>
       <c r="I10" s="6">
@@ -1177,14 +1190,14 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="11" t="s">
         <v>54</v>
       </c>
       <c r="L10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1222,7 +1235,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1250,7 +1263,7 @@
       <c r="I12" s="6">
         <v>62</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="34">
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -1260,7 +1273,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1288,7 +1301,7 @@
       <c r="I13" s="6">
         <v>93</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="34">
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -1298,7 +1311,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1326,7 +1339,7 @@
       <c r="I14" s="6">
         <v>92</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="34">
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -1336,7 +1349,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1374,7 +1387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1402,7 +1415,7 @@
       <c r="I16" s="6">
         <v>97</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="34">
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -1412,7 +1425,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1450,7 +1463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1488,7 +1501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1526,7 +1539,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1564,7 +1577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1602,7 +1615,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1640,7 +1653,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1678,7 +1691,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1688,7 +1701,7 @@
       <c r="C24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="34">
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1697,7 +1710,7 @@
       <c r="F24" s="6">
         <v>92</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="34">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -1706,7 +1719,7 @@
       <c r="I24" s="6">
         <v>92</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="34">
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -1716,7 +1729,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1754,7 +1767,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1764,7 +1777,7 @@
       <c r="C26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="34">
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -1773,7 +1786,7 @@
       <c r="F26" s="6">
         <v>62</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="34">
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -1782,7 +1795,7 @@
       <c r="I26" s="6">
         <v>62</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="34">
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -1792,7 +1805,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -1830,23 +1843,23 @@
         <v>46</v>
       </c>
     </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="D29" s="35"/>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-  <oleObjects>
-    <oleObject progId="Equation.DSMT4" shapeId="1025" r:id="rId2"/>
-    <oleObject progId="Equation.DSMT4" shapeId="1026" r:id="rId4"/>
-    <oleObject progId="Equation.DSMT4" shapeId="1027" r:id="rId5"/>
-  </oleObjects>
 </worksheet>
 </file>
 
@@ -1854,43 +1867,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D948553-6327-488F-B51B-CDFCF4973FFC}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="20" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
+    </row>
+    <row r="2" spans="1:12" ht="28.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="13" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1899,7 +1912,7 @@
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -1908,7 +1921,7 @@
       <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -1918,588 +1931,588 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="19">
         <v>2</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="19">
         <v>0.99990000000000001</v>
       </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="18">
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
         <v>0.75</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="20">
         <v>2</v>
       </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
         <v>0.85</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="20">
         <v>2</v>
       </c>
-      <c r="J3" s="18">
-        <v>0</v>
-      </c>
-      <c r="K3" s="18">
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
         <v>0.95</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="19">
         <v>18</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="19">
         <v>0.99980000000000002</v>
       </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="18">
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
         <v>0.75</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="20">
         <v>18</v>
       </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
         <v>0.85</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="20">
         <v>18</v>
       </c>
-      <c r="J4" s="18">
-        <v>0</v>
-      </c>
-      <c r="K4" s="18">
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
         <v>0.95</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="20">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="19">
         <v>3</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="19">
         <v>0.99960000000000004</v>
       </c>
-      <c r="D5" s="18">
-        <v>0</v>
-      </c>
-      <c r="E5" s="18">
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
         <v>0.75</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="20">
         <v>3</v>
       </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18">
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
         <v>0.85</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="20">
         <v>3</v>
       </c>
-      <c r="J5" s="18">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18">
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
         <v>0.95</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="19">
         <v>17</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="19">
         <v>0.99829999999999997</v>
       </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="18">
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
         <v>0.75</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="20">
         <v>17</v>
       </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18">
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
         <v>0.85</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="20">
         <v>17</v>
       </c>
-      <c r="J6" s="18">
-        <v>0</v>
-      </c>
-      <c r="K6" s="18">
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
         <v>0.95</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="20">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="19">
         <v>20</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="19">
         <v>0.99619999999999997</v>
       </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
         <v>0.75</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="20">
         <v>20</v>
       </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
         <v>0.85</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="20">
         <v>20</v>
       </c>
-      <c r="J7" s="18">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18">
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
         <v>0.95</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="20">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="14">
         <v>15</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="15">
         <v>25</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="15">
         <v>0.49809999999999999</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="16">
         <v>0.30330000000000001</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="16">
         <v>0.75</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="17">
         <v>17</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="16">
         <v>0.36499999999999999</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="16">
         <v>0.85</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="17">
         <v>17</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="16">
         <v>0.48149999999999998</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="16">
         <v>0.95</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="17">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="14">
         <v>16</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="15">
         <v>26</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="15">
         <v>0.4909</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="16">
         <v>0.41310000000000002</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="16">
         <v>0.75</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="17">
         <v>17</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="16">
         <v>0.50249999999999995</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="16">
         <v>0.85</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="17">
         <v>17</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="16">
         <v>0.50249999999999995</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="16">
         <v>0.95</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="17">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="14">
         <v>17</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="15">
         <v>91</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="15">
         <v>7.3499999999999996E-2</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="16">
         <v>0.10050000000000001</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="16">
         <v>0.75</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="17">
         <v>93</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="16">
         <v>0.10050000000000001</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="16">
         <v>0.85</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="17">
         <v>93</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="16">
         <v>0.10050000000000001</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="16">
         <v>0.95</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="17">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="14">
         <v>18</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="15">
         <v>22</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="15">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="16">
         <v>0.26650000000000001</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="16">
         <v>0.75</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="17">
         <v>18</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="16">
         <v>0.29420000000000002</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="16">
         <v>0.85</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="17">
         <v>18</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="16">
         <v>0.34799999999999998</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="16">
         <v>0.95</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="17">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="14">
         <v>19</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="15">
         <v>43</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="15">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="16">
         <v>0.10050000000000001</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="16">
         <v>0.75</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="17">
         <v>46</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="16">
         <v>0.10050000000000001</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="16">
         <v>0.85</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="17">
         <v>46</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="16">
         <v>0.105</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="16">
         <v>0.95</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="17">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="14">
         <v>20</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="15">
         <v>85</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="15">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="16">
         <v>9.9400000000000002E-2</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="16">
         <v>0.75</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="17">
         <v>93</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="16">
         <v>0.10050000000000001</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="16">
         <v>0.85</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="17">
         <v>93</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="16">
         <v>0.105</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="16">
         <v>0.95</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="17">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="21">
         <v>65</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="23">
         <v>37</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="26">
         <v>6.2666380000000002E-4</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="25">
         <v>0.50251259999999998</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="24">
         <v>7.7622134600000003E-2</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="23">
         <v>46</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="21">
         <v>66</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="23">
         <v>45</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="26">
         <v>6.1995850000000005E-4</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="25">
         <v>0.10050249999999999</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="24">
         <v>3.9525520000000002E-4</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="23">
         <v>62</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="21">
         <v>67</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="23">
         <v>63</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="26">
         <v>2.0682319000000001E-3</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="25">
         <v>0.26602120000000001</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="24">
         <v>0.75</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="23">
         <v>56</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="21">
         <v>68</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="23">
         <v>60</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="26">
         <v>3.829525E-4</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="25">
         <v>0.35875499999999999</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="24">
         <v>0.74999995050000001</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="23">
         <v>56</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="21">
         <v>69</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="23">
         <v>23</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="26">
         <v>1.6894182000000001E-3</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="25">
         <v>0.26108189999999998</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="24">
         <v>0.74999999669999995</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="23">
         <v>56</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="21">
         <v>70</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="23">
         <v>39</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="26">
         <v>2.5812396000000001E-3</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="25">
         <v>0.20100499999999999</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="24">
         <v>0.68789887770000002</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="23">
         <v>62</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
